--- a/Schedule/test.xlsx
+++ b/Schedule/test.xlsx
@@ -31,6 +31,7 @@
     <sheet name="八年级(2)班" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="八年级(3)班" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="八年级(4)班" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="log" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -999,46 +1000,64 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D4" shapeId="0">
+    <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：冯胜霞</t>
+        <t>初始教师：刘曼丽
+代课教师：农思懿</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F4" shapeId="0">
+    <comment authorId="0" ref="C4" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：冯胜霞</t>
+        <t>初始教师：詹婷
+代课教师：江津</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>初始教师：刘曼丽
+代课教师：吴婕</t>
       </text>
     </comment>
     <comment authorId="0" ref="C5" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：陈凌怡</t>
+        <t>初始教师：詹婷
+代课教师：杨燕芬</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D5" shapeId="0">
+    <comment authorId="0" ref="F5" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：刘智敏</t>
+        <t>初始教师：詹婷
+代课教师：任艳霞</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：陈凌怡</t>
+        <t>初始教师：詹婷
+代课教师：杨燕芬</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F7" shapeId="0">
+    <comment authorId="0" ref="C6" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：陈凌怡</t>
+        <t>初始教师：刘曼丽
+代课教师：吴倩</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E11" shapeId="0">
+    <comment authorId="0" ref="D6" shapeId="0">
       <text>
-        <t>初始教师：吴婕
-代课教师：陈凌怡</t>
+        <t>初始教师：詹婷
+代课教师：江津</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F6" shapeId="0">
+      <text>
+        <t>初始教师：刘曼丽
+代课教师：吴婕</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E8" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：江津</t>
       </text>
     </comment>
   </commentList>
@@ -1051,46 +1070,28 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4" shapeId="0">
+    <comment authorId="0" ref="F4" shapeId="0">
       <text>
-        <t>初始教师：何玉立
-代课教师：沈祥燕</t>
+        <t>初始教师：刘曼丽
+代课教师：曹登艳</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E4" shapeId="0">
+    <comment authorId="0" ref="F5" shapeId="0">
       <text>
-        <t>初始教师：何玉立
-代课教师：沈祥燕</t>
+        <t>初始教师：刘曼丽
+代课教师：吴倩</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
       <text>
-        <t>初始教师：何玉立
-代课教师：何洁</t>
+        <t>初始教师：刘曼丽
+代课教师：刘智敏</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D5" shapeId="0">
+    <comment authorId="0" ref="D8" shapeId="0">
       <text>
-        <t>初始教师：何玉立
-代课教师：于珈歆</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E6" shapeId="0">
-      <text>
-        <t>初始教师：何玉立
-代课教师：何洁</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F7" shapeId="0">
-      <text>
-        <t>初始教师：何玉立
-代课教师：于珈歆</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C8" shapeId="0">
-      <text>
-        <t>初始教师：何玉立
-代课教师：于珈歆</t>
+        <t>初始教师：刘曼丽
+代课教师：王涵颖</t>
       </text>
     </comment>
   </commentList>
@@ -1103,22 +1104,28 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E5" shapeId="0">
+    <comment authorId="0" ref="D4" shapeId="0">
       <text>
-        <t>初始教师：高赫男
-代课教师：袁园</t>
+        <t>初始教师：刘曼丽
+代课教师：欧景</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="D5" shapeId="0">
       <text>
-        <t>初始教师：高赫男
-代课教师：袁园</t>
+        <t>初始教师：刘曼丽
+代课教师：刘智敏</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C8" shapeId="0">
+    <comment authorId="0" ref="F7" shapeId="0">
       <text>
-        <t>初始教师：高赫男
-代课教师：袁园</t>
+        <t>初始教师：刘曼丽
+代课教师：欧景</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C10" shapeId="0">
+      <text>
+        <t>初始教师：刘曼丽
+代课教师：刘智敏</t>
       </text>
     </comment>
   </commentList>
@@ -1131,10 +1138,80 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C4" shapeId="0">
+      <text>
+        <t>初始教师：刘曼丽
+代课教师：曹登艳</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D6" shapeId="0">
+      <text>
+        <t>初始教师：刘曼丽
+代课教师：吴倩</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C8" shapeId="0">
+      <text>
+        <t>初始教师：刘曼丽
+代课教师：欧景</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
-        <t>初始教师：高赫男
-代课教师：袁园</t>
+        <t>初始教师：刘曼丽
+代课教师：吴倩</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：任艳霞</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D4" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：杨燕芬</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：刘文焕</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D5" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：杨艳</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：李国进</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E6" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：江津</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F7" shapeId="0">
+      <text>
+        <t>初始教师：詹婷
+代课教师：江津</t>
       </text>
     </comment>
   </commentList>
@@ -1415,7 +1492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1446,6 +1523,11 @@
           <t>一年级(1)班班级课程表  班主任：谢耀伟</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="48" r="3" s="14">
       <c r="A3" s="21" t="n"/>
@@ -1482,16 +1564,16 @@
 08:00-08:15</t>
         </is>
       </c>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="B4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-刘曼丽</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="inlineStr">
+农思懿</t>
+        </is>
+      </c>
+      <c r="C4" s="31" t="inlineStr">
         <is>
           <t>数学晨读
-詹婷</t>
+江津</t>
         </is>
       </c>
       <c r="D4" s="26" t="inlineStr">
@@ -1500,10 +1582,10 @@
 谢耀伟</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="32" t="inlineStr">
         <is>
           <t>数学晨读
-詹婷</t>
+无候选教师</t>
         </is>
       </c>
       <c r="F4" s="26" t="inlineStr">
@@ -1520,16 +1602,16 @@
 08:20-09:00</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
-        </is>
-      </c>
-      <c r="C5" s="26" t="inlineStr">
+吴婕</t>
+        </is>
+      </c>
+      <c r="C5" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+杨燕芬</t>
         </is>
       </c>
       <c r="D5" s="26" t="inlineStr">
@@ -1544,10 +1626,10 @@
 谢耀伟</t>
         </is>
       </c>
-      <c r="F5" s="26" t="inlineStr">
+      <c r="F5" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+任艳霞</t>
         </is>
       </c>
     </row>
@@ -1558,22 +1640,22 @@
 09:10-09:50</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
+      <c r="B6" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
-        </is>
-      </c>
-      <c r="C6" s="26" t="inlineStr">
+杨燕芬</t>
+        </is>
+      </c>
+      <c r="C6" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
-        </is>
-      </c>
-      <c r="D6" s="26" t="inlineStr">
+吴倩</t>
+        </is>
+      </c>
+      <c r="D6" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+江津</t>
         </is>
       </c>
       <c r="E6" s="26" t="inlineStr">
@@ -1582,10 +1664,10 @@
 谢耀伟</t>
         </is>
       </c>
-      <c r="F6" s="26" t="inlineStr">
+      <c r="F6" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+吴婕</t>
         </is>
       </c>
     </row>
@@ -1652,10 +1734,10 @@
 金丹</t>
         </is>
       </c>
-      <c r="E8" s="26" t="inlineStr">
+      <c r="E8" s="31" t="inlineStr">
         <is>
           <t>综合实践
-詹婷</t>
+江津</t>
         </is>
       </c>
       <c r="F8" s="26" t="inlineStr">
@@ -1793,8 +1875,12 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="F10:F12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -2229,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2308,10 +2394,10 @@
 宋晓敏</t>
         </is>
       </c>
-      <c r="D4" s="31" t="inlineStr">
+      <c r="D4" s="26" t="inlineStr">
         <is>
           <t>英语晨读
-冯胜霞</t>
+吴婕</t>
         </is>
       </c>
       <c r="E4" s="26" t="inlineStr">
@@ -2320,10 +2406,10 @@
 宋晓敏</t>
         </is>
       </c>
-      <c r="F4" s="31" t="inlineStr">
+      <c r="F4" s="26" t="inlineStr">
         <is>
           <t>英语晨读
-冯胜霞</t>
+吴婕</t>
         </is>
       </c>
     </row>
@@ -2340,16 +2426,16 @@
 宋晓敏</t>
         </is>
       </c>
-      <c r="C5" s="31" t="inlineStr">
+      <c r="C5" s="26" t="inlineStr">
         <is>
           <t>英语
-陈凌怡</t>
-        </is>
-      </c>
-      <c r="D5" s="31" t="inlineStr">
+吴婕</t>
+        </is>
+      </c>
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>英语
-刘智敏</t>
+吴婕</t>
         </is>
       </c>
       <c r="E5" s="26" t="inlineStr">
@@ -2372,10 +2458,10 @@
 09:10-09:50</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>英语
-陈凌怡</t>
+吴婕</t>
         </is>
       </c>
       <c r="C6" s="26" t="inlineStr">
@@ -2434,10 +2520,10 @@
 王琴</t>
         </is>
       </c>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="F7" s="26" t="inlineStr">
         <is>
           <t>英语
-陈凌怡</t>
+吴婕</t>
         </is>
       </c>
     </row>
@@ -2494,10 +2580,10 @@
 14:00-14:40</t>
         </is>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="26" t="inlineStr">
         <is>
           <t>班会
-无候选教师</t>
+吴婕</t>
         </is>
       </c>
       <c r="C10" s="26" t="inlineStr">
@@ -2550,10 +2636,10 @@
 宋晓敏</t>
         </is>
       </c>
-      <c r="E11" s="31" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>劳动技术
-陈凌怡</t>
+吴婕</t>
         </is>
       </c>
       <c r="F11" s="26" t="inlineStr">
@@ -2655,7 +2741,6 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -5916,7 +6001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6007,10 +6092,10 @@
 杨燕芬</t>
         </is>
       </c>
-      <c r="F4" s="26" t="inlineStr">
+      <c r="F4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-刘曼丽</t>
+曹登艳</t>
         </is>
       </c>
     </row>
@@ -6045,10 +6130,10 @@
 杨燕芬</t>
         </is>
       </c>
-      <c r="F5" s="26" t="inlineStr">
+      <c r="F5" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+吴倩</t>
         </is>
       </c>
     </row>
@@ -6097,10 +6182,10 @@
 10:20-11:00</t>
         </is>
       </c>
-      <c r="B7" s="26" t="inlineStr">
+      <c r="B7" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+刘智敏</t>
         </is>
       </c>
       <c r="C7" s="26" t="inlineStr">
@@ -6147,10 +6232,10 @@
 谭隆</t>
         </is>
       </c>
-      <c r="D8" s="26" t="inlineStr">
+      <c r="D8" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+王涵颖</t>
         </is>
       </c>
       <c r="E8" s="26" t="inlineStr">
@@ -6181,10 +6266,10 @@
 14:00-14:40</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
+      <c r="B10" s="32" t="inlineStr">
         <is>
           <t>班会
-刘曼丽</t>
+无候选教师</t>
         </is>
       </c>
       <c r="C10" s="26" t="inlineStr">
@@ -6295,6 +6380,7 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -7072,7 +7158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7145,10 +7231,10 @@
 张文娟</t>
         </is>
       </c>
-      <c r="C4" s="31" t="inlineStr">
+      <c r="C4" s="26" t="inlineStr">
         <is>
           <t>语文晨读
-沈祥燕</t>
+何玉立</t>
         </is>
       </c>
       <c r="D4" s="26" t="inlineStr">
@@ -7157,10 +7243,10 @@
 张文娟</t>
         </is>
       </c>
-      <c r="E4" s="31" t="inlineStr">
+      <c r="E4" s="26" t="inlineStr">
         <is>
           <t>语文晨读
-沈祥燕</t>
+何玉立</t>
         </is>
       </c>
       <c r="F4" s="26" t="inlineStr">
@@ -7177,10 +7263,10 @@
 08:20-09:00</t>
         </is>
       </c>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>语文
-何洁</t>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>语文
+何玉立</t>
         </is>
       </c>
       <c r="C5" s="26" t="inlineStr">
@@ -7189,10 +7275,10 @@
 姚素花</t>
         </is>
       </c>
-      <c r="D5" s="31" t="inlineStr">
-        <is>
-          <t>语文
-于珈歆</t>
+      <c r="D5" s="26" t="inlineStr">
+        <is>
+          <t>语文
+何玉立</t>
         </is>
       </c>
       <c r="E5" s="26" t="inlineStr">
@@ -7233,10 +7319,10 @@
 姚素花</t>
         </is>
       </c>
-      <c r="E6" s="31" t="inlineStr">
-        <is>
-          <t>语文
-何洁</t>
+      <c r="E6" s="26" t="inlineStr">
+        <is>
+          <t>语文
+何玉立</t>
         </is>
       </c>
       <c r="F6" s="26" t="inlineStr">
@@ -7277,10 +7363,10 @@
 孟雪</t>
         </is>
       </c>
-      <c r="F7" s="31" t="inlineStr">
-        <is>
-          <t>语文
-于珈歆</t>
+      <c r="F7" s="26" t="inlineStr">
+        <is>
+          <t>语文
+何玉立</t>
         </is>
       </c>
     </row>
@@ -7297,10 +7383,10 @@
 袁园</t>
         </is>
       </c>
-      <c r="C8" s="31" t="inlineStr">
-        <is>
-          <t>语文
-于珈歆</t>
+      <c r="C8" s="26" t="inlineStr">
+        <is>
+          <t>语文
+何玉立</t>
         </is>
       </c>
       <c r="D8" s="26" t="inlineStr">
@@ -7337,10 +7423,10 @@
 14:00-14:40</t>
         </is>
       </c>
-      <c r="B10" s="32" t="inlineStr">
+      <c r="B10" s="26" t="inlineStr">
         <is>
           <t>班会
-无候选教师</t>
+何玉立</t>
         </is>
       </c>
       <c r="C10" s="26" t="inlineStr">
@@ -7498,12 +7584,11 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7626,10 +7711,10 @@
 姚素花</t>
         </is>
       </c>
-      <c r="E5" s="31" t="inlineStr">
+      <c r="E5" s="26" t="inlineStr">
         <is>
           <t>物理
-袁园</t>
+高赫男</t>
         </is>
       </c>
       <c r="F5" s="26" t="inlineStr">
@@ -7646,10 +7731,10 @@
 09:10-09:50</t>
         </is>
       </c>
-      <c r="B6" s="31" t="inlineStr">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>物理
-袁园</t>
+高赫男</t>
         </is>
       </c>
       <c r="C6" s="26" t="inlineStr">
@@ -7696,10 +7781,10 @@
 姚素花</t>
         </is>
       </c>
-      <c r="D7" s="32" t="inlineStr">
+      <c r="D7" s="26" t="inlineStr">
         <is>
           <t>地方课程
-无候选教师</t>
+高赫男</t>
         </is>
       </c>
       <c r="E7" s="26" t="inlineStr">
@@ -7728,10 +7813,10 @@
 于珈歆</t>
         </is>
       </c>
-      <c r="C8" s="31" t="inlineStr">
+      <c r="C8" s="26" t="inlineStr">
         <is>
           <t>研究性学习
-袁园</t>
+高赫男</t>
         </is>
       </c>
       <c r="D8" s="26" t="inlineStr">
@@ -7929,7 +8014,6 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -8364,7 +8448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8563,10 +8647,10 @@
 何洁</t>
         </is>
       </c>
-      <c r="E7" s="32" t="inlineStr">
+      <c r="E7" s="26" t="inlineStr">
         <is>
           <t>地方课程
-无候选教师</t>
+高赫男</t>
         </is>
       </c>
       <c r="F7" s="26" t="inlineStr">
@@ -8595,10 +8679,10 @@
 蔡卿龄</t>
         </is>
       </c>
-      <c r="D8" s="32" t="inlineStr">
+      <c r="D8" s="26" t="inlineStr">
         <is>
           <t>物理
-无候选教师</t>
+高赫男</t>
         </is>
       </c>
       <c r="E8" s="26" t="inlineStr">
@@ -8607,10 +8691,10 @@
 王琴</t>
         </is>
       </c>
-      <c r="F8" s="32" t="inlineStr">
+      <c r="F8" s="26" t="inlineStr">
         <is>
           <t>物理
-无候选教师</t>
+高赫男</t>
         </is>
       </c>
     </row>
@@ -8667,10 +8751,10 @@
 14:55-15:35</t>
         </is>
       </c>
-      <c r="B11" s="31" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>研究性学习
-袁园</t>
+高赫男</t>
         </is>
       </c>
       <c r="C11" s="26" t="inlineStr">
@@ -8790,12 +8874,38 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B4:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8874,10 +8984,10 @@
 任艳霞</t>
         </is>
       </c>
-      <c r="D4" s="26" t="inlineStr">
+      <c r="D4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-刘曼丽</t>
+欧景</t>
         </is>
       </c>
       <c r="E4" s="26" t="inlineStr">
@@ -8912,10 +9022,10 @@
 孟朵</t>
         </is>
       </c>
-      <c r="D5" s="26" t="inlineStr">
+      <c r="D5" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+刘智敏</t>
         </is>
       </c>
       <c r="E5" s="26" t="inlineStr">
@@ -9000,10 +9110,10 @@
 孟朵</t>
         </is>
       </c>
-      <c r="F7" s="26" t="inlineStr">
+      <c r="F7" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+欧景</t>
         </is>
       </c>
     </row>
@@ -9066,10 +9176,10 @@
 孟朵</t>
         </is>
       </c>
-      <c r="C10" s="26" t="inlineStr">
+      <c r="C10" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+刘智敏</t>
         </is>
       </c>
       <c r="D10" s="26" t="inlineStr">
@@ -9174,6 +9284,7 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -9561,7 +9672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9634,10 +9745,10 @@
 江津</t>
         </is>
       </c>
-      <c r="C4" s="26" t="inlineStr">
+      <c r="C4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-刘曼丽</t>
+曹登艳</t>
         </is>
       </c>
       <c r="D4" s="26" t="inlineStr">
@@ -9716,10 +9827,10 @@
 江津</t>
         </is>
       </c>
-      <c r="D6" s="26" t="inlineStr">
+      <c r="D6" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+吴倩</t>
         </is>
       </c>
       <c r="E6" s="26" t="inlineStr">
@@ -9786,10 +9897,10 @@
 陈小兰</t>
         </is>
       </c>
-      <c r="C8" s="26" t="inlineStr">
+      <c r="C8" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+欧景</t>
         </is>
       </c>
       <c r="D8" s="26" t="inlineStr">
@@ -9859,10 +9970,10 @@
 14:55-15:35</t>
         </is>
       </c>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="B11" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘曼丽</t>
+吴倩</t>
         </is>
       </c>
       <c r="C11" s="26" t="inlineStr">
@@ -9940,6 +10051,7 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -10710,7 +10822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10777,10 +10889,10 @@
 08:00-08:15</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="31" t="inlineStr">
         <is>
           <t>数学晨读
-詹婷</t>
+任艳霞</t>
         </is>
       </c>
       <c r="C4" s="26" t="inlineStr">
@@ -10789,10 +10901,10 @@
 张远航</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="31" t="inlineStr">
         <is>
           <t>数学晨读
-詹婷</t>
+杨燕芬</t>
         </is>
       </c>
       <c r="E4" s="26" t="inlineStr">
@@ -10815,10 +10927,10 @@
 08:20-09:00</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+刘文焕</t>
         </is>
       </c>
       <c r="C5" s="26" t="inlineStr">
@@ -10827,10 +10939,10 @@
 欧景</t>
         </is>
       </c>
-      <c r="D5" s="26" t="inlineStr">
+      <c r="D5" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+杨艳</t>
         </is>
       </c>
       <c r="E5" s="26" t="inlineStr">
@@ -10859,10 +10971,10 @@
 欧景</t>
         </is>
       </c>
-      <c r="C6" s="26" t="inlineStr">
+      <c r="C6" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+李国进</t>
         </is>
       </c>
       <c r="D6" s="26" t="inlineStr">
@@ -10871,10 +10983,10 @@
 张远航</t>
         </is>
       </c>
-      <c r="E6" s="26" t="inlineStr">
+      <c r="E6" s="31" t="inlineStr">
         <is>
           <t>数学
-詹婷</t>
+江津</t>
         </is>
       </c>
       <c r="F6" s="26" t="inlineStr">
@@ -10915,10 +11027,10 @@
 王建琴</t>
         </is>
       </c>
-      <c r="F7" s="26" t="inlineStr">
+      <c r="F7" s="31" t="inlineStr">
         <is>
           <t>综合实践
-詹婷</t>
+江津</t>
         </is>
       </c>
       <c r="I7" s="24" t="n"/>
@@ -11090,6 +11202,7 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/Schedule/test.xlsx
+++ b/Schedule/test.xlsx
@@ -1003,7 +1003,7 @@
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：农思懿</t>
+代课教师：冯胜霞</t>
       </text>
     </comment>
     <comment authorId="0" ref="C4" shapeId="0">
@@ -1051,7 +1051,7 @@
     <comment authorId="0" ref="F6" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：吴婕</t>
+代课教师：陈凌怡</t>
       </text>
     </comment>
     <comment authorId="0" ref="E8" shapeId="0">
@@ -1073,7 +1073,7 @@
     <comment authorId="0" ref="F4" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：曹登艳</t>
+代课教师：冯胜霞</t>
       </text>
     </comment>
     <comment authorId="0" ref="F5" shapeId="0">
@@ -1085,13 +1085,13 @@
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：刘智敏</t>
+代课教师：沈韵</t>
       </text>
     </comment>
     <comment authorId="0" ref="D8" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：王涵颖</t>
+代课教师：熊玲玲</t>
       </text>
     </comment>
   </commentList>
@@ -1113,7 +1113,7 @@
     <comment authorId="0" ref="D5" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：刘智敏</t>
+代课教师：沈韵</t>
       </text>
     </comment>
     <comment authorId="0" ref="F7" shapeId="0">
@@ -1125,7 +1125,7 @@
     <comment authorId="0" ref="C10" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：刘智敏</t>
+代课教师：吴婕</t>
       </text>
     </comment>
   </commentList>
@@ -1523,11 +1523,6 @@
           <t>一年级(1)班班级课程表  班主任：谢耀伟</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
     </row>
     <row customHeight="1" ht="48" r="3" s="14">
       <c r="A3" s="21" t="n"/>
@@ -1567,7 +1562,7 @@
       <c r="B4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-农思懿</t>
+冯胜霞</t>
         </is>
       </c>
       <c r="C4" s="31" t="inlineStr">
@@ -1667,7 +1662,7 @@
       <c r="F6" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-吴婕</t>
+陈凌怡</t>
         </is>
       </c>
     </row>
@@ -1875,9 +1870,6 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="F10:F12"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="anysvml"/>
@@ -6095,7 +6087,7 @@
       <c r="F4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-曹登艳</t>
+冯胜霞</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6177,7 @@
       <c r="B7" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘智敏</t>
+沈韵</t>
         </is>
       </c>
       <c r="C7" s="26" t="inlineStr">
@@ -6235,7 +6227,7 @@
       <c r="D8" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-王涵颖</t>
+熊玲玲</t>
         </is>
       </c>
       <c r="E8" s="26" t="inlineStr">
@@ -8878,12 +8870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:F11"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8891,15 +8883,290 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：英语晨读 任课老师：刘曼丽 代课老师：农思懿</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：校本-英语 任课老师：刘曼丽 代课老师：陈凌怡</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：数学晨读 任课老师：詹婷 代课老师：江津</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：江津</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>年级：1 班级：一年级 科目：数学晨读 任课老师：詹婷 代课老师：无</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：综合实践 任课老师：詹婷 代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：任艳霞</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：1 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：2 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>年级：2 班级：一年级 科目：班会 任课老师：刘曼丽 代课老师：无</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：2 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：2 科目：英语晨读 任课老师：刘曼丽 代课老师：农思懿</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：2 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：3 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：3 科目：英语晨读 任课老师：刘曼丽 代课老师：欧景</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：3 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：3 科目：校本-英语 任课老师：刘曼丽 代课老师：欧景</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：5 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：5 科目：英语晨读 任课老师：刘曼丽 代课老师：曹登艳</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：5 科目：校本-英语 任课老师：刘曼丽 代课老师：欧景</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：5 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：数学晨读 任课老师：詹婷 代课老师：任艳霞</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：刘文焕</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：刘文焕</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：数学晨读 任课老师：詹婷 代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：杨艳</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>年级：一年级 班级：8 科目：综合实践 任课老师：詹婷 代课老师：江津</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="A8" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="A10" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="A12" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="A14" r:id="rId14"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
+    <hyperlink ref="A18" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A20" r:id="rId20"/>
+    <hyperlink ref="A21" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A23" r:id="rId23"/>
+    <hyperlink ref="A24" r:id="rId24"/>
+    <hyperlink ref="A25" r:id="rId25"/>
+    <hyperlink ref="A26" r:id="rId26"/>
+    <hyperlink ref="A27" r:id="rId27"/>
+    <hyperlink ref="A28" r:id="rId28"/>
+    <hyperlink ref="A29" r:id="rId29"/>
+    <hyperlink ref="A30" r:id="rId30"/>
+    <hyperlink ref="A31" r:id="rId31"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -9025,7 +9292,7 @@
       <c r="D5" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘智敏</t>
+沈韵</t>
         </is>
       </c>
       <c r="E5" s="26" t="inlineStr">
@@ -9179,7 +9446,7 @@
       <c r="C10" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-刘智敏</t>
+吴婕</t>
         </is>
       </c>
       <c r="D10" s="26" t="inlineStr">

--- a/Schedule/test.xlsx
+++ b/Schedule/test.xlsx
@@ -31,7 +31,7 @@
     <sheet name="八年级(2)班" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="八年级(3)班" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="八年级(4)班" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="log" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="统计总表" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1003,7 +1003,7 @@
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：冯胜霞</t>
+代课教师：农思懿</t>
       </text>
     </comment>
     <comment authorId="0" ref="C4" shapeId="0">
@@ -1015,7 +1015,7 @@
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：吴婕</t>
+代课教师：张文娟</t>
       </text>
     </comment>
     <comment authorId="0" ref="C5" shapeId="0">
@@ -1051,13 +1051,25 @@
     <comment authorId="0" ref="F6" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：陈凌怡</t>
+代课教师：刘智敏</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F7" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：金琴</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D8" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：金琴</t>
       </text>
     </comment>
     <comment authorId="0" ref="E8" shapeId="0">
       <text>
         <t>初始教师：詹婷
-代课教师：江津</t>
+代课教师：杨燕芬</t>
       </text>
     </comment>
   </commentList>
@@ -1073,7 +1085,7 @@
     <comment authorId="0" ref="F4" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：冯胜霞</t>
+代课教师：曹登艳</t>
       </text>
     </comment>
     <comment authorId="0" ref="F5" shapeId="0">
@@ -1082,16 +1094,28 @@
 代课教师：吴倩</t>
       </text>
     </comment>
+    <comment authorId="0" ref="F6" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：金琴</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：沈韵</t>
+代课教师：王涵颖</t>
       </text>
     </comment>
     <comment authorId="0" ref="D8" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
 代课教师：熊玲玲</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C11" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：陈常钦</t>
       </text>
     </comment>
   </commentList>
@@ -1107,13 +1131,19 @@
     <comment authorId="0" ref="D4" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：欧景</t>
+代课教师：曹登艳</t>
       </text>
     </comment>
     <comment authorId="0" ref="D5" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
 代课教师：沈韵</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E6" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：金琴</t>
       </text>
     </comment>
     <comment authorId="0" ref="F7" shapeId="0">
@@ -1125,7 +1155,13 @@
     <comment authorId="0" ref="C10" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
-代课教师：吴婕</t>
+代课教师：张文娟</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D11" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：陈常钦</t>
       </text>
     </comment>
   </commentList>
@@ -1156,6 +1192,12 @@
 代课教师：欧景</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C10" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：梁海珠</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
         <t>初始教师：刘曼丽
@@ -1167,6 +1209,50 @@
 </file>
 
 <file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C8" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：梁海珠</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D10" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：梁海珠</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：金琴</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F8" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：金琴</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -1187,7 +1273,7 @@
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
         <t>初始教师：詹婷
-代课教师：刘文焕</t>
+代课教师：杨艳</t>
       </text>
     </comment>
     <comment authorId="0" ref="D5" shapeId="0">
@@ -1199,7 +1285,7 @@
     <comment authorId="0" ref="C6" shapeId="0">
       <text>
         <t>初始教师：詹婷
-代课教师：李国进</t>
+代课教师：刘文焕</t>
       </text>
     </comment>
     <comment authorId="0" ref="E6" shapeId="0">
@@ -1208,10 +1294,116 @@
 代课教师：江津</t>
       </text>
     </comment>
+    <comment authorId="0" ref="C7" shapeId="0">
+      <text>
+        <t>初始教师：金丹
+代课教师：陈常钦</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F7" shapeId="0">
       <text>
         <t>初始教师：詹婷
 代课教师：江津</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A9" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：饶翎 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级、二年级 姓名：欧景 科目：英语、英语晨读
+班级：一年级 姓名：谭隆 科目：体育与健康
+班级：一年级 姓名：黄秘 科目：音乐
+班级：一年级、二年级 姓名：曹登艳 科目：体育与及健康、英语晨读
+班级：一年级 姓名：王建琴 科目：美术
+班级：一年级、二年级 姓名：冯胜霞 科目：科学、英语晨读
+班级：一年级 姓名：陈小兰 科目：健康教育
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：农思懿 科目：语文、语文-阅读/说话、语文晨读、英语晨读
+班级：一年级 姓名：杨燕芬 科目：数学、数学晨读、综合实践
+班级：一年级、二年级 姓名：欧景 科目：英语、英语晨读
+班级：一年级 姓名：谭隆 科目：体育与健康
+班级：一年级 姓名：黄秘 科目：音乐
+班级：一年级、二年级 姓名：曹登艳 科目：体育与及健康、英语晨读
+班级：一年级 姓名：王建琴 科目：美术
+班级：一年级、二年级 姓名：冯胜霞 科目：科学、英语晨读
+班级：一年级 姓名：陈小兰 科目：健康教育
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A27" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：农思懿 科目：语文、语文-阅读/说话、语文晨读、英语晨读
+班级：一年级 姓名：杨燕芬 科目：数学、数学晨读、综合实践
+班级：一年级、二年级 姓名：欧景 科目：英语、英语晨读
+班级：一年级 姓名：谭隆 科目：体育与健康
+班级：一年级 姓名：黄秘 科目：音乐
+班级：一年级、二年级 姓名：曹登艳 科目：体育与及健康、英语晨读
+班级：一年级 姓名：王建琴 科目：美术
+班级：一年级、二年级 姓名：冯胜霞 科目：科学、英语晨读
+班级：一年级 姓名：陈小兰 科目：健康教育
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A28" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：谢耀伟 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：张远航 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：孟朵 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：农思懿 科目：语文、语文-阅读/说话、语文晨读、英语晨读
+班级：一年级 姓名：饶翎 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：杨燕芬 科目：数学、数学晨读、综合实践
+班级：一年级 姓名：任艳霞 科目：数学、数学晨读、综合实践、班会
+班级：一年级 姓名：江津 科目：数学、数学晨读、综合实践、班会
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A29" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：张远航 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：农思懿 科目：语文、语文-阅读/说话、语文晨读、英语晨读
+班级：一年级 姓名：饶翎 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：杨燕芬 科目：数学、数学晨读、综合实践
+班级：一年级 姓名：任艳霞 科目：数学、数学晨读、综合实践、班会
+班级：一年级 姓名：江津 科目：数学、数学晨读、综合实践、班会
+班级：一年级 姓名：谭隆 科目：体育与健康
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A35" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：谢耀伟 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：孟朵 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：农思懿 科目：语文、语文-阅读/说话、语文晨读、英语晨读
+班级：一年级 姓名：饶翎 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：杨燕芬 科目：数学、数学晨读、综合实践
+班级：一年级 姓名：任艳霞 科目：数学、数学晨读、综合实践、班会
+班级：一年级 姓名：江津 科目：数学、数学晨读、综合实践、班会
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A47" shapeId="0">
+      <text>
+        <t xml:space="preserve">班级：一年级 姓名：谢耀伟 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：张远航 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：孟朵 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：农思懿 科目：语文、语文-阅读/说话、语文晨读、英语晨读
+班级：一年级 姓名：饶翎 科目：语文、班会、语文-阅读/说话、语文晨读
+班级：一年级 姓名：江津 科目：数学、数学晨读、综合实践、班会
+班级：一年级、二年级 姓名：欧景 科目：英语、英语晨读
+</t>
       </text>
     </comment>
   </commentList>
@@ -1562,7 +1754,7 @@
       <c r="B4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-冯胜霞</t>
+农思懿</t>
         </is>
       </c>
       <c r="C4" s="31" t="inlineStr">
@@ -1600,7 +1792,7 @@
       <c r="B5" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-吴婕</t>
+张文娟</t>
         </is>
       </c>
       <c r="C5" s="31" t="inlineStr">
@@ -1662,7 +1854,7 @@
       <c r="F6" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-陈凌怡</t>
+刘智敏</t>
         </is>
       </c>
     </row>
@@ -1697,10 +1889,10 @@
 谭隆</t>
         </is>
       </c>
-      <c r="F7" s="26" t="inlineStr">
+      <c r="F7" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+金琴</t>
         </is>
       </c>
     </row>
@@ -1723,16 +1915,16 @@
 王建琴</t>
         </is>
       </c>
-      <c r="D8" s="26" t="inlineStr">
+      <c r="D8" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+金琴</t>
         </is>
       </c>
       <c r="E8" s="31" t="inlineStr">
         <is>
           <t>综合实践
-江津</t>
+杨燕芬</t>
         </is>
       </c>
       <c r="F8" s="26" t="inlineStr">
@@ -6087,7 +6279,7 @@
       <c r="F4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-冯胜霞</t>
+曹登艳</t>
         </is>
       </c>
     </row>
@@ -6160,10 +6352,10 @@
 张远航</t>
         </is>
       </c>
-      <c r="F6" s="26" t="inlineStr">
+      <c r="F6" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+金琴</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6369,7 @@
       <c r="B7" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-沈韵</t>
+王涵颖</t>
         </is>
       </c>
       <c r="C7" s="26" t="inlineStr">
@@ -6297,10 +6489,10 @@
 王建琴</t>
         </is>
       </c>
-      <c r="C11" s="26" t="inlineStr">
+      <c r="C11" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+陈常钦</t>
         </is>
       </c>
       <c r="D11" s="26" t="inlineStr">
@@ -8875,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8886,222 +9078,341 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：英语晨读 任课老师：刘曼丽 代课老师：农思懿</t>
+          <t>班级：一年级(1)班    科目：英语晨读    任课老师：刘曼丽    代课老师：农思懿</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：校本-英语 任课老师：刘曼丽 代课老师：陈凌怡</t>
+          <t>班级：一年级(1)班    科目：校本-英语    任课老师：刘曼丽    代课老师：陈凌怡</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：杨燕芬</t>
+          <t>班级：一年级(1)班    科目：数学    任课老师：詹婷    代课老师：杨燕芬</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：数学晨读 任课老师：詹婷 代课老师：江津</t>
+          <t>班级：一年级(1)班    科目：数学晨读    任课老师：詹婷    代课老师：江津</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：杨燕芬</t>
+          <t>班级：一年级(1)班    科目：数学    任课老师：詹婷    代课老师：杨燕芬</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+          <t>班级：一年级(1)班    科目：校本-英语    任课老师：刘曼丽    代课老师：吴倩</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：江津</t>
+          <t>班级：一年级(1)班    科目：数学    任课老师：詹婷    代课老师：江津</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>年级：1 班级：一年级 科目：数学晨读 任课老师：詹婷 代课老师：无</t>
+          <t>班级：一年级(1)班    科目：道德与法治    任课老师：金丹    代课老师：金琴</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：综合实践 任课老师：詹婷 代课老师：杨燕芬</t>
+          <t>班级：一年级(1)班    科目：数学晨读    任课老师：詹婷    代课老师：无</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：数学 任课老师：詹婷 代课老师：任艳霞</t>
+          <t>班级：一年级(1)班    科目：综合实践    任课老师：詹婷    代课老师：杨燕芬</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：1 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+          <t>班级：一年级(1)班    科目：数学    任课老师：詹婷    代课老师：任艳霞</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：2 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+          <t>班级：一年级(1)班    科目：校本-英语    任课老师：刘曼丽    代课老师：沈韵</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>年级：2 班级：一年级 科目：班会 任课老师：刘曼丽 代课老师：无</t>
+          <t>班级：一年级(1)班    科目：道德与法治    任课老师：金丹    代课老师：金琴</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：2 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+          <t>班级：一年级(2)班    科目：校本-英语    任课老师：刘曼丽    代课老师：沈韵</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：2 科目：英语晨读 任课老师：刘曼丽 代课老师：农思懿</t>
+          <t>班级：一年级(2)班    科目：班会    任课老师：刘曼丽    代课老师：无</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：2 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+          <t>班级：一年级(2)班    科目：道德与法治    任课老师：金丹    代课老师：陈常钦</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：3 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+          <t>班级：一年级(2)班    科目：校本-英语    任课老师：刘曼丽    代课老师：沈韵</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：3 科目：英语晨读 任课老师：刘曼丽 代课老师：欧景</t>
+          <t>班级：一年级(2)班    科目：英语晨读    任课老师：刘曼丽    代课老师：农思懿</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：3 科目：校本-英语 任课老师：刘曼丽 代课老师：沈韵</t>
+          <t>班级：一年级(2)班    科目：校本-英语    任课老师：刘曼丽    代课老师：吴倩</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：3 科目：校本-英语 任课老师：刘曼丽 代课老师：欧景</t>
+          <t>班级：一年级(2)班    科目：道德与法治    任课老师：金丹    代课老师：金琴</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：5 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+          <t>班级：一年级(3)班    科目：校本-英语    任课老师：刘曼丽    代课老师：沈韵</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：5 科目：英语晨读 任课老师：刘曼丽 代课老师：曹登艳</t>
+          <t>班级：一年级(3)班    科目：英语晨读    任课老师：刘曼丽    代课老师：欧景</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：5 科目：校本-英语 任课老师：刘曼丽 代课老师：欧景</t>
+          <t>班级：一年级(3)班    科目：校本-英语    任课老师：刘曼丽    代课老师：沈韵</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：5 科目：校本-英语 任课老师：刘曼丽 代课老师：吴倩</t>
+          <t>班级：一年级(3)班    科目：道德与法治    任课老师：金丹    代课老师：陈常钦</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：数学晨读 任课老师：詹婷 代课老师：任艳霞</t>
+          <t>班级：一年级(3)班    科目：道德与法治    任课老师：金丹    代课老师：金琴</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：刘文焕</t>
+          <t>班级：一年级(3)班    科目：校本-英语    任课老师：刘曼丽    代课老师：欧景</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：刘文焕</t>
+          <t>班级：一年级(4)班    科目：班会    任课老师：金丹    代课老师：无</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：数学晨读 任课老师：詹婷 代课老师：杨燕芬</t>
+          <t>班级：一年级(4)班    科目：道德与法治    任课老师：金丹    代课老师：无</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：杨艳</t>
+          <t>班级：一年级(4)班    科目：道德与法治    任课老师：金丹    代课老师：无</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：数学 任课老师：詹婷 代课老师：杨燕芬</t>
+          <t>班级：一年级(5)班    科目：校本-英语    任课老师：刘曼丽    代课老师：吴倩</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>年级：一年级 班级：8 科目：综合实践 任课老师：詹婷 代课老师：江津</t>
+          <t>班级：一年级(5)班    科目：英语晨读    任课老师：刘曼丽    代课老师：曹登艳</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>班级：一年级(5)班    科目：校本-英语    任课老师：刘曼丽    代课老师：欧景</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>班级：一年级(5)班    科目：道德与法治    任课老师：金丹    代课老师：梁海珠</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>班级：一年级(5)班    科目：校本-英语    任课老师：刘曼丽    代课老师：吴倩</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>班级：一年级(5)班    科目：道德与法治    任课老师：金丹    代课老师：无</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>班级：一年级(6)班    科目：道德与法治    任课老师：金丹    代课老师：陈常钦</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>班级：一年级(6)班    科目：道德与法治    任课老师：金丹    代课老师：梁海珠</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>班级：一年级(7)班    科目：道德与法治    任课老师：金丹    代课老师：金琴</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>班级：一年级(7)班    科目：道德与法治    任课老师：金丹    代课老师：金琴</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：数学晨读    任课老师：詹婷    代课老师：任艳霞</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：数学    任课老师：詹婷    代课老师：刘文焕</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：数学    任课老师：詹婷    代课老师：刘文焕</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：道德与法治    任课老师：金丹    代课老师：陈常钦</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：数学晨读    任课老师：詹婷    代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：数学    任课老师：詹婷    代课老师：杨艳</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：数学    任课老师：詹婷    代课老师：杨燕芬</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：道德与法治    任课老师：金丹    代课老师：无</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>班级：一年级(8)班    科目：综合实践    任课老师：詹婷    代课老师：江津</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="48">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -9133,6 +9444,23 @@
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -9166,8 +9494,26 @@
     <hyperlink ref="A29" r:id="rId29"/>
     <hyperlink ref="A30" r:id="rId30"/>
     <hyperlink ref="A31" r:id="rId31"/>
+    <hyperlink ref="A32" r:id="rId32"/>
+    <hyperlink ref="A33" r:id="rId33"/>
+    <hyperlink ref="A34" r:id="rId34"/>
+    <hyperlink ref="A35" r:id="rId35"/>
+    <hyperlink ref="A36" r:id="rId36"/>
+    <hyperlink ref="A37" r:id="rId37"/>
+    <hyperlink ref="A38" r:id="rId38"/>
+    <hyperlink ref="A39" r:id="rId39"/>
+    <hyperlink ref="A40" r:id="rId40"/>
+    <hyperlink ref="A41" r:id="rId41"/>
+    <hyperlink ref="A42" r:id="rId42"/>
+    <hyperlink ref="A43" r:id="rId43"/>
+    <hyperlink ref="A44" r:id="rId44"/>
+    <hyperlink ref="A45" r:id="rId45"/>
+    <hyperlink ref="A46" r:id="rId46"/>
+    <hyperlink ref="A47" r:id="rId47"/>
+    <hyperlink ref="A48" r:id="rId48"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -9254,7 +9600,7 @@
       <c r="D4" s="31" t="inlineStr">
         <is>
           <t>英语晨读
-欧景</t>
+曹登艳</t>
         </is>
       </c>
       <c r="E4" s="26" t="inlineStr">
@@ -9333,10 +9679,10 @@
 任艳霞</t>
         </is>
       </c>
-      <c r="E6" s="26" t="inlineStr">
+      <c r="E6" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+金琴</t>
         </is>
       </c>
       <c r="F6" s="26" t="inlineStr">
@@ -9446,7 +9792,7 @@
       <c r="C10" s="31" t="inlineStr">
         <is>
           <t>校本-英语
-吴婕</t>
+张文娟</t>
         </is>
       </c>
       <c r="D10" s="26" t="inlineStr">
@@ -9482,10 +9828,10 @@
 冯胜霞</t>
         </is>
       </c>
-      <c r="D11" s="26" t="inlineStr">
+      <c r="D11" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+陈常钦</t>
         </is>
       </c>
       <c r="E11" s="23" t="inlineStr">
@@ -9821,10 +10167,10 @@
 14:00-14:40</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
+      <c r="B10" s="32" t="inlineStr">
         <is>
           <t>班会
-金丹</t>
+无候选教师</t>
         </is>
       </c>
       <c r="C10" s="26" t="inlineStr">
@@ -9839,10 +10185,10 @@
 欧景</t>
         </is>
       </c>
-      <c r="E10" s="26" t="inlineStr">
+      <c r="E10" s="32" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+无候选教师</t>
         </is>
       </c>
       <c r="F10" s="9" t="n"/>
@@ -9854,10 +10200,10 @@
 14:55-15:35</t>
         </is>
       </c>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="B11" s="32" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+无候选教师</t>
         </is>
       </c>
       <c r="C11" s="26" t="inlineStr">
@@ -10210,10 +10556,10 @@
 饶翎</t>
         </is>
       </c>
-      <c r="C10" s="26" t="inlineStr">
+      <c r="C10" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+梁海珠</t>
         </is>
       </c>
       <c r="D10" s="26" t="inlineStr">
@@ -10255,10 +10601,10 @@
 黄秘</t>
         </is>
       </c>
-      <c r="E11" s="26" t="inlineStr">
+      <c r="E11" s="32" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+无候选教师</t>
         </is>
       </c>
       <c r="F11" s="29" t="n"/>
@@ -10323,7 +10669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10548,10 +10894,10 @@
 曹登艳</t>
         </is>
       </c>
-      <c r="C8" s="26" t="inlineStr">
+      <c r="C8" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+梁海珠</t>
         </is>
       </c>
       <c r="D8" s="26" t="inlineStr">
@@ -10600,10 +10946,10 @@
 曹登艳</t>
         </is>
       </c>
-      <c r="D10" s="26" t="inlineStr">
+      <c r="D10" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+梁海珠</t>
         </is>
       </c>
       <c r="E10" s="26" t="inlineStr">
@@ -10702,11 +11048,12 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10925,10 +11272,10 @@
 11:10-11:50</t>
         </is>
       </c>
-      <c r="B8" s="26" t="inlineStr">
+      <c r="B8" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+金琴</t>
         </is>
       </c>
       <c r="C8" s="26" t="inlineStr">
@@ -10949,10 +11296,10 @@
 任艳霞</t>
         </is>
       </c>
-      <c r="F8" s="26" t="inlineStr">
+      <c r="F8" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+金琴</t>
         </is>
       </c>
     </row>
@@ -11085,6 +11432,7 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -11197,7 +11545,7 @@
       <c r="B5" s="31" t="inlineStr">
         <is>
           <t>数学
-刘文焕</t>
+杨艳</t>
         </is>
       </c>
       <c r="C5" s="26" t="inlineStr">
@@ -11241,7 +11589,7 @@
       <c r="C6" s="31" t="inlineStr">
         <is>
           <t>数学
-李国进</t>
+刘文焕</t>
         </is>
       </c>
       <c r="D6" s="26" t="inlineStr">
@@ -11276,10 +11624,10 @@
 黄秘</t>
         </is>
       </c>
-      <c r="C7" s="26" t="inlineStr">
+      <c r="C7" s="31" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+陈常钦</t>
         </is>
       </c>
       <c r="D7" s="26" t="inlineStr">
@@ -11327,10 +11675,10 @@
 曹登艳</t>
         </is>
       </c>
-      <c r="E8" s="26" t="inlineStr">
+      <c r="E8" s="32" t="inlineStr">
         <is>
           <t>道德与法治
-金丹</t>
+无候选教师</t>
         </is>
       </c>
       <c r="F8" s="26" t="inlineStr">
